--- a/TestData/Vorlagen/Notenzeugnis/Notentabelle-13.xlsx
+++ b/TestData/Vorlagen/Notenzeugnis/Notentabelle-13.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t xml:space="preserve">Noten: Einsendeschluss 15.01.2016</t>
   </si>
@@ -454,7 +454,7 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -708,7 +708,9 @@
       <c r="U9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="7"/>
@@ -732,7 +734,9 @@
       <c r="U10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="7"/>
@@ -756,7 +760,9 @@
       <c r="U11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="7"/>
@@ -780,7 +786,9 @@
       <c r="U12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="7"/>
@@ -804,7 +812,9 @@
       <c r="U13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="7"/>
@@ -828,7 +838,9 @@
       <c r="U14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="7"/>
@@ -852,7 +864,9 @@
       <c r="U15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
+      <c r="A16" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="7"/>
@@ -876,7 +890,9 @@
       <c r="U16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
+      <c r="A17" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="7"/>
@@ -900,7 +916,9 @@
       <c r="U17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
+      <c r="A18" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="7"/>
@@ -924,7 +942,9 @@
       <c r="U18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
+      <c r="A19" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="7"/>
@@ -948,7 +968,9 @@
       <c r="U19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
+      <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="7"/>
@@ -972,7 +994,9 @@
       <c r="U20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="7"/>
@@ -996,7 +1020,9 @@
       <c r="U21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="7"/>
@@ -1020,7 +1046,9 @@
       <c r="U22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
+      <c r="A23" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="7"/>
@@ -1044,7 +1072,9 @@
       <c r="U23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="7"/>
@@ -1068,7 +1098,9 @@
       <c r="U24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
+      <c r="A25" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="7"/>
@@ -1092,7 +1124,9 @@
       <c r="U25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
+      <c r="A26" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="7"/>
@@ -1116,7 +1150,9 @@
       <c r="U26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="7"/>
@@ -1140,7 +1176,9 @@
       <c r="U27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
+      <c r="A28" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="7"/>
@@ -1164,7 +1202,9 @@
       <c r="U28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
+      <c r="A29" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="7"/>
@@ -1188,7 +1228,9 @@
       <c r="U29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
+      <c r="A30" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="7"/>
@@ -1212,7 +1254,9 @@
       <c r="U30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
+      <c r="A31" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="7"/>
@@ -1236,7 +1280,9 @@
       <c r="U31" s="17"/>
     </row>
     <row r="32" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6"/>
+      <c r="A32" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="7"/>
@@ -1260,7 +1306,9 @@
       <c r="U32" s="17"/>
     </row>
     <row r="33" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
+      <c r="A33" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="7"/>
